--- a/config/tests/test-files/Schedules/Schedules.xlsx
+++ b/config/tests/test-files/Schedules/Schedules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MosheStern\PycharmProjects\cr-fn-2\tests\test-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MosheStern\work\my-repos\cr-bot\config\tests\test-files\Schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51722BE6-1FC6-4514-A60B-4A865014A6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9B95D9-74CE-49EB-B909-66B11F6DA909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="750" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>97151: Assessment, Lic/Cert only - REVIEWER</t>
   </si>
   <si>
-    <t>codes_to_add</t>
+    <t>codes</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/tests/test-files/Schedules/Schedules.xlsx
+++ b/config/tests/test-files/Schedules/Schedules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MosheStern\work\my-repos\cr-bot\config\tests\test-files\Schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9B95D9-74CE-49EB-B909-66B11F6DA909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688AE986-3D32-461D-A7D4-96C1A8A8C7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="1695" windowWidth="21600" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>client_id</t>
   </si>
   <si>
-    <t>97151: Assessment, Lic/Cert only - REVIEWER</t>
-  </si>
-  <si>
-    <t>codes</t>
+    <t>auths</t>
   </si>
 </sst>
 </file>
@@ -384,7 +381,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,15 +394,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1290458</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+      <c r="B2" s="1">
+        <v>32705743</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
